--- a/ConfigData.xlsx
+++ b/ConfigData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DemoNew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B80DCE-D934-4A07-BFB8-7FB93EA2E609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D691DF50-3170-4B6E-BEDD-79CFECB52E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{66560AEA-38A9-4F55-AD12-F7917F330F88}"/>
   </bookViews>
@@ -109,10 +109,10 @@
     <t>CreateDuplicateStudyVerifyText</t>
   </si>
   <si>
-    <t>DemoStudyName15</t>
-  </si>
-  <si>
-    <t>DemoStudyName16</t>
+    <t>DemoStudyName18</t>
+  </si>
+  <si>
+    <t>DemoStudyName19</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0E5892-A817-4BA9-B2BC-549C4688805B}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
